--- a/PBL - Noctoramento.xlsx
+++ b/PBL - Noctoramento.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sseve\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\OneDrive\sptech\Sp-tech\Ads2\LP\lista-03-metodos-PedroHPCSouza-1\Área de Trabalho\NocTotamento\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503CAB1-D7AE-41F6-8A82-258A2ED65463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEAEB28-9F87-4258-9A6D-D311B8FD6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B0DD404-9F6F-4CBF-B326-486AA060C181}"/>
   </bookViews>
   <sheets>
     <sheet name="PBL" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PBL!$B$3:$I$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
   <si>
     <t>Descrição</t>
   </si>
@@ -346,12 +349,133 @@
       <t xml:space="preserve">                                                                                                                                                                    Product Backlog</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>Controle da Execução</t>
+  </si>
+  <si>
+    <t>Diagrama da Solução</t>
+  </si>
+  <si>
+    <t>representação visual que mostra os passos necessários para resolver um problema ou alcançar um objetivo. Ele ajuda a organizar informações de forma clara e sequencial, facilitando a identificação de falhas, otimização de processos e comunicação eficaz entre equipes.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Dashboard Estático</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interface gráfica que apresenta informações de maneira visual e concisa, como gráficos, tabelas e medidores, permitindo aos usuários acompanhar métricas e indicadores-chave de desempenho de forma rápida e eficiente. Ela é utilizada em diversas áreas para oferecer uma visão geral do estado atual de um sistema, processo ou atividade, facilitando a tomada de decisões informadas e o monitoramento de desempenho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Funcional</t>
+  </si>
+  <si>
+    <t>Protótipo Funcional do Java (INTEROPERABILIDADE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sistema ou aplicativo desenvolvido em Java que é capaz de se comunicar e interagir eficientemente com outros sistemas, plataformas ou linguagens de programação. Isso é fundamental em ambientes complexos onde diferentes componentes precisam trabalhar juntos</t>
+  </si>
+  <si>
+    <t>JAR inicial rodando em Cliente Linux em VM AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Um arquivo JAR (Java ARchive) é um formato compactado usado para distribuir aplicativos e bibliotecas Java. Ele inclui classes Java, recursos e metadados, e é amplamente utilizado para organizar e compartilhar software Java.</t>
+  </si>
+  <si>
+    <t>BPMN</t>
+  </si>
+  <si>
+    <t>BPMN (Business Process Model and Notation) é uma linguagem de modelagem gráfica usada para representar processos de negócios de maneira visual. Ela utiliza símbolos padronizados para descrever atividades, eventos, decisões e fluxos de informações em um processo. Esses diagramas são úteis para documentar, analisar e melhorar os processos de negócios, bem como para facilitar a comunicação entre as equipes.</t>
+  </si>
+  <si>
+    <t>Wireframes (de tudo – exceto Site Institucional)</t>
+  </si>
+  <si>
+    <t>esboços simplificados de uma interface de usuário, usados no estágio inicial do design para planejar a estrutura e a disposição dos elementos da interface, sem se concentrar em detalhes estéticos. Eles ajudam os designers a visualizar e comunicar ideias de design de forma rápida e clara, facilitando a identificação de problemas de usabilidade e a tomada de decisões informadas sobre o layout e a funcionalidade da interface.</t>
+  </si>
+  <si>
+    <t>DER (a partir de lista de dados da Sprint 1):</t>
+  </si>
+  <si>
+    <t>representação visual que descreve as relações entre diferentes entidades em um sistema ou banco de dados. Este diagrama é amplamente utilizado no processo de modelagem de dados em engenharia de software e banco de dados.</t>
+  </si>
+  <si>
+    <t>VM na Nuvem AWS c/ camada de Segurança:</t>
+  </si>
+  <si>
+    <t>Na Nuvem AWS, VM (Máquina Virtual) é uma instância computacional flexível e escalável que roda em um ambiente virtualizado, permitindo aos usuários executar aplicativos e serviços de forma eficiente e econômica.</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>conjunto de comandos automatizados projetados para instalar e configurar rapidamente o ambiente necessário para desenvolver e executar aplicativos Java. Isso inclui a instalação do Java Development Kit (JDK), configuração de variáveis de ambiente e instalação de bibliotecas (libs) necessárias para o projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Script de instalação Java/Libs/Var.Ambiente</t>
+  </si>
+  <si>
+    <t>Integração de API : Listar Processos, CPU, Memória, Disco + (Rede ou USB ou Janelas):</t>
+  </si>
+  <si>
+    <t>permite obter informações sobre processos em execução, uso da CPU, memória RAM, espaço em disco e, opcionalmente, estatísticas de rede, dispositivos USB ou janelas abertas no sistema operacional. É útil para monitoramento e gerenciamento de recursos do sistema em aplicativos e ferramentas de diagnóstico.</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> forma de acessar dados sobre os componentes físicos de um dispositivo de forma programática. Isso permite que desenvolvedores integrem essas informações em seus aplicativos para finalidades como monitoramento de desempenho e diagnóstico de problemas.</t>
+  </si>
+  <si>
+    <t>Integração da API : Listar Info Hardware</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,8 +527,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,12 +568,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF858D9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00DBD6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,8 +578,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -493,11 +684,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0C233A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0C233A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0C233A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0C233A"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0C233A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,73 +735,91 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}">
-  <dimension ref="B1:K28"/>
+  <dimension ref="B2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,9 +1190,6 @@
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="9"/>
-    </row>
     <row r="2" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>98</v>
@@ -955,734 +1200,1082 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="6" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="7" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="E7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="8" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+    </row>
+    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="13" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="16"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="14" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="16"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+    </row>
+    <row r="15" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    </row>
+    <row r="16" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="16"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+    </row>
+    <row r="17" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+    </row>
+    <row r="18" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="2:17" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:17" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H40" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="18" t="s">
+    </row>
+    <row r="41" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H41" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="18" t="s">
+    </row>
+    <row r="42" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I42" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="17"/>
+      <c r="J43" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:I42" xr:uid="{B3ADFCE7-5F87-4B50-9368-A1BD724B0EA4}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
